--- a/Net4.0/功能列表.xlsx
+++ b/Net4.0/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="功能说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>序号</t>
   </si>
@@ -39,7 +39,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>功能点1</t>
+    <t>疑问点</t>
   </si>
   <si>
     <t>薪酬管理</t>
@@ -78,7 +78,7 @@
     <t>可通过“部门、姓名、月份”进行查询；对给定月份已经录入考核完成的员工才会出现在查询结果中</t>
   </si>
   <si>
-    <t>社保、个税</t>
+    <t>更新工资总和</t>
   </si>
   <si>
     <t>考核记录</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>数据需包含岗位薪资设定</t>
+  </si>
+  <si>
+    <t>字段：籍贯、住址、婚姻、学历、人才来源、工作年限</t>
   </si>
   <si>
     <t>跳转</t>
@@ -246,11 +249,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,14 +271,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,9 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,21 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -412,7 +385,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,19 +429,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,151 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,11 +675,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,47 +759,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -758,171 +772,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,17 +1319,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
@@ -1342,11 +1338,12 @@
     <col min="5" max="5" width="46.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.4444444444444" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:8">
+    <row r="1" ht="34" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1371,6 +1368,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" ht="57" customHeight="1" spans="1:6">
       <c r="A2" s="6">
@@ -1403,7 +1401,6 @@
         <v>13</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1416,6 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1448,7 +1444,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" ht="36" customHeight="1" spans="1:8">
+    <row r="7" ht="36" customHeight="1" spans="1:6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1463,12 +1459,8 @@
         <v>19</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:9">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1479,9 +1471,11 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -1495,7 +1489,6 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1593,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="32" customHeight="1" spans="1:8">
+    <row r="18" ht="32" customHeight="1" spans="1:9">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1615,9 +1608,11 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:6">
@@ -1627,7 +1622,7 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1638,13 +1633,13 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1655,7 +1650,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1666,13 +1661,13 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -1683,7 +1678,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1694,13 +1689,13 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="9"/>
     </row>
@@ -1711,7 +1706,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1723,7 +1718,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -1735,7 +1730,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -1747,7 +1742,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
@@ -1781,10 +1776,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1796,7 +1791,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1808,7 +1803,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1820,7 +1815,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1832,7 +1827,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1844,7 +1839,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1855,10 +1850,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>10</v>
@@ -1873,7 +1868,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
@@ -1897,7 +1892,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
@@ -1908,7 +1903,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1919,10 +1914,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>10</v>
@@ -1937,7 +1932,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1961,7 +1956,7 @@
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1972,7 +1967,7 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>10</v>
@@ -1987,7 +1982,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
@@ -2011,7 +2006,7 @@
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
@@ -2022,7 +2017,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>10</v>
@@ -2037,7 +2032,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
@@ -2061,7 +2056,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
@@ -2072,7 +2067,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>10</v>
@@ -2087,7 +2082,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
@@ -2111,7 +2106,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
@@ -2121,10 +2116,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>10</v>
@@ -2139,7 +2134,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
@@ -2163,7 +2158,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
@@ -2175,7 +2170,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
@@ -2190,7 +2185,7 @@
         <v>23</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="9"/>
     </row>
@@ -2200,7 +2195,7 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>10</v>
@@ -2215,7 +2210,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
@@ -2239,7 +2234,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
@@ -2251,7 +2246,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
@@ -2262,7 +2257,7 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>10</v>
@@ -2288,7 +2283,7 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>10</v>
@@ -2313,10 +2308,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>10</v>
@@ -2331,7 +2326,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
@@ -2355,7 +2350,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
@@ -2366,7 +2361,7 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>10</v>
@@ -2381,7 +2376,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="13"/>
       <c r="D78" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
@@ -2405,7 +2400,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="14"/>
       <c r="D80" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
@@ -2416,7 +2411,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>10</v>
@@ -2431,7 +2426,7 @@
       <c r="B82" s="10"/>
       <c r="C82" s="13"/>
       <c r="D82" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
@@ -2455,7 +2450,7 @@
       <c r="B84" s="11"/>
       <c r="C84" s="14"/>
       <c r="D84" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
@@ -2465,13 +2460,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
@@ -2483,7 +2478,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="14"/>
       <c r="D86" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -2495,7 +2490,7 @@
       <c r="B87" s="11"/>
       <c r="C87" s="14"/>
       <c r="D87" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
@@ -2554,7 +2549,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2571,7 +2566,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Net4.0/功能列表.xlsx
+++ b/Net4.0/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="功能说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>序号</t>
   </si>
@@ -111,7 +111,10 @@
     <t>数据需包含岗位薪资设定</t>
   </si>
   <si>
-    <t>字段：籍贯、住址、婚姻、学历、人才来源、工作年限</t>
+    <t>字段：籍贯、住址、婚姻、学历、人才来源、工作年限、合同编号</t>
+  </si>
+  <si>
+    <t>出生日期从身份证中获取</t>
   </si>
   <si>
     <t>跳转</t>
@@ -248,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -277,9 +280,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,14 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,21 +340,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -384,23 +387,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +409,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -429,37 +432,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,145 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +678,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -694,7 +732,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,44 +754,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,133 +795,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1319,17 +1322,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
@@ -1339,8 +1342,9 @@
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="20.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.4444444444444" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="24.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:9">
@@ -1593,7 +1597,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="32" customHeight="1" spans="1:9">
+    <row r="18" ht="57" customHeight="1" spans="1:10">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1614,6 +1618,9 @@
       <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:6">
       <c r="A19" s="6">
@@ -1622,7 +1629,7 @@
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1633,13 +1640,13 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="9"/>
     </row>
@@ -1650,7 +1657,7 @@
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1661,13 +1668,13 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="9"/>
     </row>
@@ -1678,7 +1685,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1689,13 +1696,13 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" s="9"/>
     </row>
@@ -1706,7 +1713,7 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -1718,7 +1725,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -1730,7 +1737,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
@@ -1742,7 +1749,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
@@ -1776,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1791,7 +1798,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1803,7 +1810,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1815,7 +1822,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1827,7 +1834,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1839,7 +1846,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1850,10 +1857,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>10</v>
@@ -1868,7 +1875,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
@@ -1892,7 +1899,7 @@
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
@@ -1903,7 +1910,7 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1914,10 +1921,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>10</v>
@@ -1932,7 +1939,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -1956,7 +1963,7 @@
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1967,7 +1974,7 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>10</v>
@@ -1982,7 +1989,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
@@ -2006,7 +2013,7 @@
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
@@ -2017,7 +2024,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>10</v>
@@ -2032,7 +2039,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
@@ -2056,7 +2063,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
       <c r="D53" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
@@ -2067,7 +2074,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>10</v>
@@ -2082,7 +2089,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
@@ -2106,7 +2113,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
@@ -2116,10 +2123,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>10</v>
@@ -2134,7 +2141,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
@@ -2158,7 +2165,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
@@ -2170,7 +2177,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
@@ -2185,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F63" s="9"/>
     </row>
@@ -2195,7 +2202,7 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>10</v>
@@ -2210,7 +2217,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
@@ -2234,7 +2241,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
@@ -2246,7 +2253,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
@@ -2257,7 +2264,7 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>10</v>
@@ -2283,7 +2290,7 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>10</v>
@@ -2308,10 +2315,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>10</v>
@@ -2326,7 +2333,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
@@ -2350,7 +2357,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
@@ -2361,7 +2368,7 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>10</v>
@@ -2376,7 +2383,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="13"/>
       <c r="D78" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
@@ -2400,7 +2407,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="14"/>
       <c r="D80" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
@@ -2411,7 +2418,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>10</v>
@@ -2426,7 +2433,7 @@
       <c r="B82" s="10"/>
       <c r="C82" s="13"/>
       <c r="D82" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
@@ -2450,7 +2457,7 @@
       <c r="B84" s="11"/>
       <c r="C84" s="14"/>
       <c r="D84" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
@@ -2460,13 +2467,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
@@ -2478,7 +2485,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="14"/>
       <c r="D86" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -2490,7 +2497,7 @@
       <c r="B87" s="11"/>
       <c r="C87" s="14"/>
       <c r="D87" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
@@ -2549,7 +2556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2566,7 +2573,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Net4.0/功能列表.xlsx
+++ b/Net4.0/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="功能说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>序号</t>
   </si>
@@ -99,6 +99,9 @@
     <t>工资记录</t>
   </si>
   <si>
+    <t>员工周期薪酬汇总</t>
+  </si>
+  <si>
     <t>员工管理</t>
   </si>
   <si>
@@ -108,7 +111,19 @@
     <t>入职数据输入</t>
   </si>
   <si>
-    <t>数据需包含岗位薪资设定</t>
+    <r>
+      <t>数据需包含岗位薪资设定、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>岗位选择</t>
+    </r>
   </si>
   <si>
     <t>字段：籍贯、住址、婚姻、学历、人才来源、工作年限、合同编号</t>
@@ -132,6 +147,9 @@
     <t>可通过“部门、姓名”进行查询；处在“转正、试用期”的员工才会出现在查询结果中</t>
   </si>
   <si>
+    <t>添加备注字段</t>
+  </si>
+  <si>
     <t>员工列表</t>
   </si>
   <si>
@@ -148,6 +166,12 @@
   </si>
   <si>
     <t>导入员工数据</t>
+  </si>
+  <si>
+    <t>调岗</t>
+  </si>
+  <si>
+    <t>调部门</t>
   </si>
   <si>
     <t>数据分析</t>
@@ -251,12 +275,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,14 +298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,14 +320,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -311,17 +327,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,9 +348,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +410,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -387,14 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -402,18 +441,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -432,19 +463,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,163 +547,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,21 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -714,30 +730,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -752,11 +744,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +773,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +826,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +991,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,14 +1362,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1434,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:6">
       <c r="A6" s="6">
@@ -1446,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:6">
       <c r="A7" s="6">
@@ -1462,7 +1502,7 @@
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:9">
       <c r="A8" s="6">
@@ -1559,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:6">
       <c r="A15" s="6">
@@ -1571,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:6">
       <c r="A16" s="6">
@@ -1583,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:6">
       <c r="A17" s="6">
@@ -1597,62 +1637,52 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:10">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="18" ht="20" customHeight="1" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="H18" s="2" t="s">
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="57" customHeight="1" spans="1:10">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:6">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8" t="s">
+      <c r="J20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="38" customHeight="1" spans="1:6">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="9"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:6">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -1660,79 +1690,86 @@
         <v>34</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="35" customHeight="1" spans="1:6">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="38" customHeight="1" spans="1:6">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="9"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:6">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" ht="42" customHeight="1" spans="1:6">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:6">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:8">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:6">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="s">
+    </row>
+    <row r="26" ht="42" customHeight="1" spans="1:6">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:6">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:6">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1744,7 +1781,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:6">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1756,157 +1793,145 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:6">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:6">
       <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:6">
       <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:6">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:6">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:6">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:6">
       <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:6">
       <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:6">
       <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:6">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:6">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:6">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="C40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:6">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
@@ -1918,9 +1943,9 @@
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:6">
       <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -1930,23 +1955,23 @@
         <v>10</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:6">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:6">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1954,592 +1979,656 @@
         <v>22</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:6">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:6">
       <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:6">
       <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:6">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:6">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:6">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C50" s="11"/>
       <c r="D50" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:6">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="D51" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:6">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:6">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:6">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:6">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:6">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:6">
       <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:6">
       <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:6">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D59" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:6">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:6">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:6">
       <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:6">
       <c r="A63" s="6">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E63" s="8"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:6">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B64" s="10"/>
-      <c r="C64" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="8" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:6">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="8" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:6">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:6">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="8" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:6">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F68" s="9"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:6">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:6">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="8" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:6">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="C71" s="10"/>
       <c r="D71" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:6">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:6">
       <c r="A73" s="6">
-        <v>72</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:6">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="8"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:6">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="8"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:6">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D76" s="8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:6">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="C77" s="10"/>
       <c r="D77" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="8"/>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:6">
       <c r="A78" s="6">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D78" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:6">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:6">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:6">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="C81" s="11"/>
       <c r="D81" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:6">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="D82" s="8" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:6">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:6">
       <c r="A84" s="6">
-        <v>83</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:6">
       <c r="A85" s="6">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="8" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:6">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="D86" s="8" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:6">
       <c r="A87" s="6">
-        <v>86</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="8" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:6">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="8"/>
+      <c r="A88" s="6">
+        <v>82</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" ht="20" customHeight="1" spans="1:6">
+      <c r="A89" s="6">
+        <v>83</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" ht="20" customHeight="1" spans="1:6">
+      <c r="A90" s="6">
+        <v>84</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" ht="20" customHeight="1" spans="1:6">
+      <c r="A91" s="6">
+        <v>85</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" ht="20" customHeight="1" spans="1:6">
+      <c r="A92" s="6">
+        <v>86</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" ht="20" customHeight="1" spans="1:6">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B42:B57"/>
-    <mergeCell ref="B58:B72"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B62"/>
+    <mergeCell ref="B63:B77"/>
+    <mergeCell ref="B78:B89"/>
+    <mergeCell ref="B90:B92"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C35"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Net4.0/功能列表.xlsx
+++ b/Net4.0/功能列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="功能说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>序号</t>
   </si>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>数据需包含岗位薪资设定、</t>
     </r>
     <r>
@@ -153,7 +160,7 @@
     <t>员工列表</t>
   </si>
   <si>
-    <t>可通过“部门、姓名、员工状态”进行查询；</t>
+    <t>可通过“部门、姓名、员工状态”进行查询；合同到期提醒</t>
   </si>
   <si>
     <t>修改基础信息</t>
@@ -174,6 +181,12 @@
     <t>调部门</t>
   </si>
   <si>
+    <t>事纪</t>
+  </si>
+  <si>
+    <t>奖励、惩罚、岗位变动、薪酬变动、培训</t>
+  </si>
+  <si>
     <t>数据分析</t>
   </si>
   <si>
@@ -195,6 +208,21 @@
     <t>员工离职因素分析</t>
   </si>
   <si>
+    <t>智能预测</t>
+  </si>
+  <si>
+    <t>离职员工汇总</t>
+  </si>
+  <si>
+    <t>分别按部门、岗位、司龄、年龄统计汇总</t>
+  </si>
+  <si>
+    <t>在职员工汇总</t>
+  </si>
+  <si>
+    <t>分别按薪酬、应发、司龄、年龄</t>
+  </si>
+  <si>
     <t>组织架构</t>
   </si>
   <si>
@@ -268,6 +296,18 @@
   </si>
   <si>
     <t>加载公司信息</t>
+  </si>
+  <si>
+    <t>个人修改密码</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -275,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -297,95 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -395,32 +346,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +368,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -463,187 +503,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,41 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -759,17 +764,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,7 +777,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,9 +799,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,137 +866,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,15 +1033,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,6 +1044,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1362,14 +1405,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1639,8 +1682,8 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:6">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="8"/>
@@ -1649,8 +1692,8 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:6">
       <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
@@ -1670,7 +1713,7 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1829,8 +1872,8 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:6">
       <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="8" t="s">
         <v>46</v>
       </c>
@@ -1839,8 +1882,8 @@
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:6">
       <c r="A33" s="6"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="8" t="s">
         <v>47</v>
       </c>
@@ -1849,9 +1892,11 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:6">
       <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
@@ -1862,9 +1907,11 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:6">
@@ -1872,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1887,7 +1934,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1899,7 +1946,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1911,7 +1958,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1923,7 +1970,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1935,501 +1982,495 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="1:6">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
+    <row r="42" ht="32" customHeight="1" spans="1:6">
+      <c r="A42" s="6"/>
       <c r="B42" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="1:6">
-      <c r="A43" s="6">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" ht="26" customHeight="1" spans="1:6">
+      <c r="A43" s="6"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:6">
-      <c r="A44" s="6">
-        <v>38</v>
-      </c>
+      <c r="A44" s="6"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:6">
       <c r="A45" s="6">
-        <v>39</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:6">
       <c r="A46" s="6">
-        <v>40</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:6">
       <c r="A47" s="6">
-        <v>41</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>60</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:6">
       <c r="A48" s="6">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:6">
       <c r="A49" s="6">
-        <v>43</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:6">
       <c r="A50" s="6">
-        <v>44</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:6">
       <c r="A51" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C51" s="10"/>
       <c r="D51" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:6">
       <c r="A52" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:6">
       <c r="A53" s="6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:6">
       <c r="A54" s="6">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D54" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:6">
       <c r="A55" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="C55" s="10"/>
       <c r="D55" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:6">
       <c r="A56" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:6">
       <c r="A57" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:6">
       <c r="A58" s="6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:6">
       <c r="A59" s="6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="C59" s="10"/>
       <c r="D59" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:6">
       <c r="A60" s="6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:6">
       <c r="A61" s="6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:6">
       <c r="A62" s="6">
-        <v>56</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D62" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:6">
       <c r="A63" s="6">
-        <v>57</v>
-      </c>
-      <c r="B63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:6">
       <c r="A64" s="6">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:6">
       <c r="A65" s="6">
-        <v>59</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:6">
       <c r="A66" s="6">
-        <v>60</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:6">
       <c r="A67" s="6">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:6">
       <c r="A68" s="6">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E68" s="8"/>
       <c r="F68" s="9"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:6">
       <c r="A69" s="6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B69" s="10"/>
-      <c r="C69" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:6">
       <c r="A70" s="6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:6">
       <c r="A71" s="6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="F71" s="9"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:6">
       <c r="A72" s="6">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
+      <c r="C72" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D72" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:6">
       <c r="A73" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:6">
       <c r="A74" s="6">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:6">
       <c r="A75" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:6">
       <c r="A76" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="C76" s="11"/>
       <c r="D76" s="8" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:6">
       <c r="A77" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="C77" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D77" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:6">
       <c r="A78" s="6">
-        <v>72</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:6">
       <c r="A79" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="C79" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:6">
       <c r="A80" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -2441,174 +2482,226 @@
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:6">
       <c r="A81" s="6">
-        <v>75</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D81" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
     </row>
     <row r="82" ht="20" customHeight="1" spans="1:6">
       <c r="A82" s="6">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="C82" s="10"/>
       <c r="D82" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
     </row>
     <row r="83" ht="20" customHeight="1" spans="1:6">
       <c r="A83" s="6">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="16"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
     </row>
     <row r="84" ht="20" customHeight="1" spans="1:6">
       <c r="A84" s="6">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="16"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
     <row r="85" ht="20" customHeight="1" spans="1:6">
       <c r="A85" s="6">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="17"/>
+      <c r="C85" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
     </row>
     <row r="86" ht="20" customHeight="1" spans="1:6">
       <c r="A86" s="6">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="C86" s="14"/>
       <c r="D86" s="8" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
     </row>
     <row r="87" ht="20" customHeight="1" spans="1:6">
       <c r="A87" s="6">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="C87" s="16"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
     <row r="88" ht="20" customHeight="1" spans="1:6">
       <c r="A88" s="6">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B88" s="10"/>
-      <c r="C88" s="16"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
     <row r="89" ht="20" customHeight="1" spans="1:6">
       <c r="A89" s="6">
-        <v>83</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="D89" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
     </row>
     <row r="90" ht="20" customHeight="1" spans="1:6">
       <c r="A90" s="6">
-        <v>84</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
     <row r="91" ht="20" customHeight="1" spans="1:6">
       <c r="A91" s="6">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="C91" s="17"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="8" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" ht="20" customHeight="1" spans="1:6">
       <c r="A92" s="6">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B92" s="11"/>
-      <c r="C92" s="17"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="8" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
     <row r="93" ht="20" customHeight="1" spans="1:6">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="8"/>
+      <c r="A93" s="6">
+        <v>84</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" ht="20" customHeight="1" spans="1:6">
+      <c r="A94" s="6">
+        <v>85</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" ht="20" customHeight="1" spans="1:6">
+      <c r="A95" s="6">
+        <v>86</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96" ht="20" customHeight="1" spans="1:6">
+      <c r="A96" s="6"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" ht="20" customHeight="1" spans="1:6">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B20:B35"/>
     <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B62"/>
-    <mergeCell ref="B63:B77"/>
-    <mergeCell ref="B78:B89"/>
-    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B65"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="B81:B92"/>
+    <mergeCell ref="B93:B95"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C13"/>
@@ -2617,18 +2710,18 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C35"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C89:C92"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2639,14 +2732,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C10:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
